--- a/Prototypes/Lucerne/Nekia.xlsx
+++ b/Prototypes/Lucerne/Nekia.xlsx
@@ -55,16 +55,6 @@
   <si>
     <t>SWC</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>SW3</t>
   </si>
   <si>
     <t>SW4</t>
@@ -129,6 +119,17 @@
   <si>
     <t>SimulationName</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW24</t>
   </si>
 </sst>
 </file>
@@ -512,19 +513,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943DADBB-0F94-4862-B53D-8A552399A6D3}">
   <dimension ref="A1:BE1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -548,73 +550,73 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="AE1" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:31">

--- a/Prototypes/Lucerne/Nekia.xlsx
+++ b/Prototypes/Lucerne/Nekia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="40">
   <si>
     <t>NekiaDefoliation</t>
   </si>
@@ -131,6 +131,30 @@
   <si>
     <t>SW24</t>
   </si>
+  <si>
+    <t>RutherglenDefoliation</t>
+  </si>
+  <si>
+    <t>SW10to40</t>
+  </si>
+  <si>
+    <t>SW40to80</t>
+  </si>
+  <si>
+    <t>SW80to120</t>
+  </si>
+  <si>
+    <t>SW120to160</t>
+  </si>
+  <si>
+    <t>SW160to200</t>
+  </si>
+  <si>
+    <t>SW200to240</t>
+  </si>
+  <si>
+    <t>SW240to280</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +221,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -511,10 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943DADBB-0F94-4862-B53D-8A552399A6D3}">
-  <dimension ref="A1:BE1128"/>
+  <dimension ref="A1:BE1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:AE1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF1129" sqref="AF1129:AL1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -524,7 +552,7 @@
     <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1">
+    <row r="1" spans="1:38" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -618,8 +646,29 @@
       <c r="AE1" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +678,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -639,7 +688,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -649,7 +698,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -659,7 +708,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -669,7 +718,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -679,7 +728,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -689,7 +738,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -699,7 +748,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -709,7 +758,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -719,7 +768,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -731,7 +780,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -741,7 +790,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -751,7 +800,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -761,7 +810,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -15580,7 +15629,7 @@
         <v>0.24125512307106059</v>
       </c>
     </row>
-    <row r="1121" spans="1:31">
+    <row r="1121" spans="1:38">
       <c r="A1121" t="s">
         <v>0</v>
       </c>
@@ -15660,7 +15709,7 @@
         <v>0.23328115152637929</v>
       </c>
     </row>
-    <row r="1122" spans="1:31">
+    <row r="1122" spans="1:38">
       <c r="A1122" t="s">
         <v>0</v>
       </c>
@@ -15740,7 +15789,7 @@
         <v>0.23807924352263504</v>
       </c>
     </row>
-    <row r="1123" spans="1:31">
+    <row r="1123" spans="1:38">
       <c r="A1123" t="s">
         <v>0</v>
       </c>
@@ -15820,7 +15869,7 @@
         <v>0.23724806335826124</v>
       </c>
     </row>
-    <row r="1124" spans="1:31">
+    <row r="1124" spans="1:38">
       <c r="A1124" t="s">
         <v>0</v>
       </c>
@@ -15900,7 +15949,7 @@
         <v>0.23476913577883185</v>
       </c>
     </row>
-    <row r="1125" spans="1:31">
+    <row r="1125" spans="1:38">
       <c r="A1125" t="s">
         <v>0</v>
       </c>
@@ -15980,7 +16029,7 @@
         <v>0.25133535628191583</v>
       </c>
     </row>
-    <row r="1126" spans="1:31">
+    <row r="1126" spans="1:38">
       <c r="A1126" t="s">
         <v>0</v>
       </c>
@@ -16050,7 +16099,7 @@
       <c r="AD1126" s="4"/>
       <c r="AE1126" s="4"/>
     </row>
-    <row r="1127" spans="1:31">
+    <row r="1127" spans="1:38">
       <c r="A1127" t="s">
         <v>0</v>
       </c>
@@ -16130,7 +16179,7 @@
         <v>0.23839855094056234</v>
       </c>
     </row>
-    <row r="1128" spans="1:31">
+    <row r="1128" spans="1:38">
       <c r="A1128" t="s">
         <v>0</v>
       </c>
@@ -16208,6 +16257,1543 @@
       </c>
       <c r="AE1128" s="4">
         <v>0.23724806335826124</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:38">
+      <c r="A1129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1129" s="8">
+        <v>35165</v>
+      </c>
+      <c r="AF1129">
+        <v>18.74878271</v>
+      </c>
+      <c r="AG1129">
+        <v>62.481286849999996</v>
+      </c>
+      <c r="AH1129">
+        <v>81.830905139999999</v>
+      </c>
+      <c r="AI1129">
+        <v>88.388941759999994</v>
+      </c>
+      <c r="AJ1129">
+        <v>79.274931210000005</v>
+      </c>
+      <c r="AK1129">
+        <v>93.027586630000002</v>
+      </c>
+      <c r="AL1129">
+        <v>94.027930069999996</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:38">
+      <c r="A1130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1130" s="8">
+        <v>35222</v>
+      </c>
+      <c r="AF1130">
+        <v>27.792860109999999</v>
+      </c>
+      <c r="AG1130">
+        <v>64.067146809999997</v>
+      </c>
+      <c r="AH1130">
+        <v>85.537396119999997</v>
+      </c>
+      <c r="AI1130">
+        <v>87.43351801</v>
+      </c>
+      <c r="AJ1130">
+        <v>79.5012373</v>
+      </c>
+      <c r="AK1130">
+        <v>92.665447830000005</v>
+      </c>
+      <c r="AL1130">
+        <v>93.96369344</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:38">
+      <c r="A1131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1131" s="8">
+        <v>35256</v>
+      </c>
+      <c r="AF1131">
+        <v>64.206031539999998</v>
+      </c>
+      <c r="AG1131">
+        <v>95.395101060000002</v>
+      </c>
+      <c r="AH1131">
+        <v>95.119753979999999</v>
+      </c>
+      <c r="AI1131">
+        <v>89.533267660000007</v>
+      </c>
+      <c r="AJ1131">
+        <v>79.043903630000003</v>
+      </c>
+      <c r="AK1131">
+        <v>91.950543080000003</v>
+      </c>
+      <c r="AL1131">
+        <v>93.274928540000005</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:38">
+      <c r="A1132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1132" s="8">
+        <v>35262</v>
+      </c>
+      <c r="AF1132">
+        <v>62.466200469999997</v>
+      </c>
+      <c r="AG1132">
+        <v>97.807704999999999</v>
+      </c>
+      <c r="AH1132">
+        <v>101.59936639999999</v>
+      </c>
+      <c r="AI1132">
+        <v>94.182933689999999</v>
+      </c>
+      <c r="AJ1132">
+        <v>87.944907810000004</v>
+      </c>
+      <c r="AK1132">
+        <v>96.419667919999995</v>
+      </c>
+      <c r="AL1132">
+        <v>90.936717939999994</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:38">
+      <c r="A1133" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1133" s="8">
+        <v>35269</v>
+      </c>
+      <c r="AF1133">
+        <v>67.704469169999996</v>
+      </c>
+      <c r="AG1133">
+        <v>103.2526909</v>
+      </c>
+      <c r="AH1133">
+        <v>100.5002399</v>
+      </c>
+      <c r="AI1133">
+        <v>92.453986319999998</v>
+      </c>
+      <c r="AJ1133">
+        <v>80.78572887</v>
+      </c>
+      <c r="AK1133">
+        <v>92.323111470000001</v>
+      </c>
+      <c r="AL1133">
+        <v>93.000261330000001</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:38">
+      <c r="A1134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1134" s="8">
+        <v>35277</v>
+      </c>
+      <c r="AF1134">
+        <v>66.988566759999998</v>
+      </c>
+      <c r="AG1134">
+        <v>107.7867395</v>
+      </c>
+      <c r="AH1134">
+        <v>118.258087</v>
+      </c>
+      <c r="AI1134">
+        <v>111.9536586</v>
+      </c>
+      <c r="AJ1134">
+        <v>94.984120050000001</v>
+      </c>
+      <c r="AK1134">
+        <v>98.606463860000005</v>
+      </c>
+      <c r="AL1134">
+        <v>90.692784810000006</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:38">
+      <c r="A1135" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1135" s="8">
+        <v>35283</v>
+      </c>
+      <c r="AF1135">
+        <v>74.250081159999993</v>
+      </c>
+      <c r="AG1135">
+        <v>115.5749826</v>
+      </c>
+      <c r="AH1135">
+        <v>120.3904971</v>
+      </c>
+      <c r="AI1135">
+        <v>112.23104530000001</v>
+      </c>
+      <c r="AJ1135">
+        <v>97.744389549999994</v>
+      </c>
+      <c r="AK1135">
+        <v>99.244181299999994</v>
+      </c>
+      <c r="AL1135">
+        <v>95.714299710000006</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:38">
+      <c r="A1136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1136" s="8">
+        <v>35297</v>
+      </c>
+      <c r="AF1136">
+        <v>71.085055109999999</v>
+      </c>
+      <c r="AG1136">
+        <v>114.29513780000001</v>
+      </c>
+      <c r="AH1136">
+        <v>121.12439070000001</v>
+      </c>
+      <c r="AI1136">
+        <v>112.92989900000001</v>
+      </c>
+      <c r="AJ1136">
+        <v>100.3688181</v>
+      </c>
+      <c r="AK1136">
+        <v>102.57386409999999</v>
+      </c>
+      <c r="AL1136">
+        <v>97.035419469999994</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:38">
+      <c r="A1137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1137" s="8">
+        <v>35311</v>
+      </c>
+      <c r="AF1137">
+        <v>68.190290309999995</v>
+      </c>
+      <c r="AG1137">
+        <v>111.3997348</v>
+      </c>
+      <c r="AH1137">
+        <v>121.0233435</v>
+      </c>
+      <c r="AI1137">
+        <v>113.6072173</v>
+      </c>
+      <c r="AJ1137">
+        <v>99.990856449999995</v>
+      </c>
+      <c r="AK1137">
+        <v>103.003182</v>
+      </c>
+      <c r="AL1137">
+        <v>98.008351110000007</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:38">
+      <c r="A1138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1138" s="8">
+        <v>35325</v>
+      </c>
+      <c r="AF1138">
+        <v>65.910561000000001</v>
+      </c>
+      <c r="AG1138">
+        <v>107.9212251</v>
+      </c>
+      <c r="AH1138">
+        <v>121.2261913</v>
+      </c>
+      <c r="AI1138">
+        <v>113.3077888</v>
+      </c>
+      <c r="AJ1138">
+        <v>100.94756409999999</v>
+      </c>
+      <c r="AK1138">
+        <v>103.90786780000001</v>
+      </c>
+      <c r="AL1138">
+        <v>99.393609690000005</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:38">
+      <c r="A1139" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1139" s="8">
+        <v>35341</v>
+      </c>
+      <c r="AF1139">
+        <v>83.244189939999998</v>
+      </c>
+      <c r="AG1139">
+        <v>118.99745679999999</v>
+      </c>
+      <c r="AH1139">
+        <v>127.0771968</v>
+      </c>
+      <c r="AI1139">
+        <v>119.96004050000001</v>
+      </c>
+      <c r="AJ1139">
+        <v>106.0061266</v>
+      </c>
+      <c r="AK1139">
+        <v>110.3973822</v>
+      </c>
+      <c r="AL1139">
+        <v>105.3814411</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:38">
+      <c r="A1140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1140" s="8">
+        <v>35368</v>
+      </c>
+      <c r="AF1140">
+        <v>57.420731050000001</v>
+      </c>
+      <c r="AG1140">
+        <v>106.4363326</v>
+      </c>
+      <c r="AH1140">
+        <v>123.4151263</v>
+      </c>
+      <c r="AI1140">
+        <v>115.9899274</v>
+      </c>
+      <c r="AJ1140">
+        <v>104.19646950000001</v>
+      </c>
+      <c r="AK1140">
+        <v>103.9272653</v>
+      </c>
+      <c r="AL1140">
+        <v>102.9766379</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:38">
+      <c r="A1141" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1141" s="8">
+        <v>35388</v>
+      </c>
+      <c r="AF1141">
+        <v>39.403171790000002</v>
+      </c>
+      <c r="AG1141">
+        <v>87.691072390000002</v>
+      </c>
+      <c r="AH1141">
+        <v>115.1187626</v>
+      </c>
+      <c r="AI1141">
+        <v>111.3516529</v>
+      </c>
+      <c r="AJ1141">
+        <v>99.312765519999999</v>
+      </c>
+      <c r="AK1141">
+        <v>104.34656630000001</v>
+      </c>
+      <c r="AL1141">
+        <v>102.86870279999999</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:38">
+      <c r="A1142" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1142" s="8">
+        <v>35408</v>
+      </c>
+      <c r="AF1142">
+        <v>24.22436575</v>
+      </c>
+      <c r="AG1142">
+        <v>67.146789150000004</v>
+      </c>
+      <c r="AH1142">
+        <v>96.464300800000004</v>
+      </c>
+      <c r="AI1142">
+        <v>101.0203447</v>
+      </c>
+      <c r="AJ1142">
+        <v>94.15318911</v>
+      </c>
+      <c r="AK1142">
+        <v>101.5128993</v>
+      </c>
+      <c r="AL1142">
+        <v>101.66593930000001</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:38">
+      <c r="A1143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1143" s="8">
+        <v>35468</v>
+      </c>
+      <c r="AF1143">
+        <v>20.714964949999999</v>
+      </c>
+      <c r="AG1143">
+        <v>63.587065420000002</v>
+      </c>
+      <c r="AH1143">
+        <v>86.777766360000001</v>
+      </c>
+      <c r="AI1143">
+        <v>89.856719630000001</v>
+      </c>
+      <c r="AJ1143">
+        <v>80.158915890000003</v>
+      </c>
+      <c r="AK1143">
+        <v>94.712710279999996</v>
+      </c>
+      <c r="AL1143">
+        <v>97.084859809999998</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:38">
+      <c r="A1144" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1144" s="8">
+        <v>35543</v>
+      </c>
+      <c r="AF1144">
+        <v>18.97165846</v>
+      </c>
+      <c r="AG1144">
+        <v>61.102794070000002</v>
+      </c>
+      <c r="AH1144">
+        <v>83.297387290000003</v>
+      </c>
+      <c r="AI1144">
+        <v>87.280342000000005</v>
+      </c>
+      <c r="AJ1144">
+        <v>77.352807540000001</v>
+      </c>
+      <c r="AK1144">
+        <v>90.921289250000001</v>
+      </c>
+      <c r="AL1144">
+        <v>93.639403049999999</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:38">
+      <c r="A1145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1145" s="8">
+        <v>35580</v>
+      </c>
+      <c r="AF1145">
+        <v>53.210529409999999</v>
+      </c>
+      <c r="AG1145">
+        <v>70.011201420000006</v>
+      </c>
+      <c r="AH1145">
+        <v>88.042671330000005</v>
+      </c>
+      <c r="AI1145">
+        <v>92.763186379999993</v>
+      </c>
+      <c r="AJ1145">
+        <v>83.499580030000004</v>
+      </c>
+      <c r="AK1145">
+        <v>94.043768279999995</v>
+      </c>
+      <c r="AL1145">
+        <v>96.318966779999997</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:38">
+      <c r="A1146" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1146" s="8">
+        <v>35598</v>
+      </c>
+      <c r="AF1146">
+        <v>57.784813540000002</v>
+      </c>
+      <c r="AG1146">
+        <v>71.121850620000004</v>
+      </c>
+      <c r="AH1146">
+        <v>87.247824690000002</v>
+      </c>
+      <c r="AI1146">
+        <v>91.652129669999994</v>
+      </c>
+      <c r="AJ1146">
+        <v>82.296349590000005</v>
+      </c>
+      <c r="AK1146">
+        <v>92.013800829999994</v>
+      </c>
+      <c r="AL1146">
+        <v>95.860572610000006</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:38">
+      <c r="A1147" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1147" s="8">
+        <v>35612</v>
+      </c>
+      <c r="AF1147">
+        <v>54.966100969999999</v>
+      </c>
+      <c r="AG1147">
+        <v>72.57640782</v>
+      </c>
+      <c r="AH1147">
+        <v>87.342931440000001</v>
+      </c>
+      <c r="AI1147">
+        <v>90.856114160000004</v>
+      </c>
+      <c r="AJ1147">
+        <v>81.7079971</v>
+      </c>
+      <c r="AK1147">
+        <v>92.267171959999999</v>
+      </c>
+      <c r="AL1147">
+        <v>94.731874680000004</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:38">
+      <c r="A1148" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1148" s="8">
+        <v>35629</v>
+      </c>
+      <c r="AF1148">
+        <v>52.125547679999997</v>
+      </c>
+      <c r="AG1148">
+        <v>72.853807410000002</v>
+      </c>
+      <c r="AH1148">
+        <v>84.704791060000005</v>
+      </c>
+      <c r="AI1148">
+        <v>91.121619780000003</v>
+      </c>
+      <c r="AJ1148">
+        <v>80.989023579999994</v>
+      </c>
+      <c r="AK1148">
+        <v>91.240449940000005</v>
+      </c>
+      <c r="AL1148">
+        <v>93.979743479999996</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:38">
+      <c r="A1149" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1149" s="8">
+        <v>35647</v>
+      </c>
+      <c r="AF1149">
+        <v>46.991788939999999</v>
+      </c>
+      <c r="AG1149">
+        <v>71.434935150000001</v>
+      </c>
+      <c r="AH1149">
+        <v>86.786383729999997</v>
+      </c>
+      <c r="AI1149">
+        <v>91.229378440000005</v>
+      </c>
+      <c r="AJ1149">
+        <v>81.669579740000003</v>
+      </c>
+      <c r="AK1149">
+        <v>91.76324271</v>
+      </c>
+      <c r="AL1149">
+        <v>94.675135420000004</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:38">
+      <c r="A1150" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1150" s="8">
+        <v>35664</v>
+      </c>
+      <c r="AF1150">
+        <v>62.577339879999997</v>
+      </c>
+      <c r="AG1150">
+        <v>92.487661700000004</v>
+      </c>
+      <c r="AH1150">
+        <v>89.605204749999999</v>
+      </c>
+      <c r="AI1150">
+        <v>92.912477949999996</v>
+      </c>
+      <c r="AJ1150">
+        <v>82.302560900000003</v>
+      </c>
+      <c r="AK1150">
+        <v>93.127508399999996</v>
+      </c>
+      <c r="AL1150">
+        <v>96.141081479999997</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:38">
+      <c r="A1151" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1151" s="8">
+        <v>35697</v>
+      </c>
+      <c r="AF1151">
+        <v>60.003254589999997</v>
+      </c>
+      <c r="AG1151">
+        <v>92.477073390000001</v>
+      </c>
+      <c r="AH1151">
+        <v>89.873155960000005</v>
+      </c>
+      <c r="AI1151">
+        <v>89.587000000000003</v>
+      </c>
+      <c r="AJ1151">
+        <v>78.924889910000005</v>
+      </c>
+      <c r="AK1151">
+        <v>89.587000000000003</v>
+      </c>
+      <c r="AL1151">
+        <v>92.760174309999996</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:38">
+      <c r="A1152" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1152" s="8">
+        <v>35727</v>
+      </c>
+      <c r="AF1152">
+        <v>26.14116701</v>
+      </c>
+      <c r="AG1152">
+        <v>71.411542859999997</v>
+      </c>
+      <c r="AH1152">
+        <v>89.294940260000004</v>
+      </c>
+      <c r="AI1152">
+        <v>91.605354809999994</v>
+      </c>
+      <c r="AJ1152">
+        <v>82.630442599999995</v>
+      </c>
+      <c r="AK1152">
+        <v>95.323191690000002</v>
+      </c>
+      <c r="AL1152">
+        <v>95.248461300000002</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:38">
+      <c r="A1153" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1153" s="8">
+        <v>35747</v>
+      </c>
+      <c r="AF1153">
+        <v>24.11725689</v>
+      </c>
+      <c r="AG1153">
+        <v>66.271052960000006</v>
+      </c>
+      <c r="AH1153">
+        <v>86.696565500000005</v>
+      </c>
+      <c r="AI1153">
+        <v>91.765301949999994</v>
+      </c>
+      <c r="AJ1153">
+        <v>82.665295760000006</v>
+      </c>
+      <c r="AK1153">
+        <v>91.917931249999995</v>
+      </c>
+      <c r="AL1153">
+        <v>93.679355839999999</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:38">
+      <c r="A1154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1154" s="8">
+        <v>35766</v>
+      </c>
+      <c r="AF1154">
+        <v>24.227340810000001</v>
+      </c>
+      <c r="AG1154">
+        <v>69.386042799999998</v>
+      </c>
+      <c r="AH1154">
+        <v>87.774733819999994</v>
+      </c>
+      <c r="AI1154">
+        <v>92.077316280000005</v>
+      </c>
+      <c r="AJ1154">
+        <v>82.410583509999995</v>
+      </c>
+      <c r="AK1154">
+        <v>92.307774530000003</v>
+      </c>
+      <c r="AL1154">
+        <v>94.224436330000003</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:38">
+      <c r="A1155" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1155" s="8">
+        <v>35781</v>
+      </c>
+      <c r="AF1155">
+        <v>22.940142590000001</v>
+      </c>
+      <c r="AG1155">
+        <v>66.889830970000006</v>
+      </c>
+      <c r="AH1155">
+        <v>86.687497669999999</v>
+      </c>
+      <c r="AI1155">
+        <v>90.29583221</v>
+      </c>
+      <c r="AJ1155">
+        <v>80.338983720000002</v>
+      </c>
+      <c r="AK1155">
+        <v>91.575273260000003</v>
+      </c>
+      <c r="AL1155">
+        <v>93.408966090000007</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:38">
+      <c r="A1156" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1156" s="8">
+        <v>35866</v>
+      </c>
+      <c r="AF1156">
+        <v>20.15502394</v>
+      </c>
+      <c r="AG1156">
+        <v>63.92771449</v>
+      </c>
+      <c r="AH1156">
+        <v>81.9397278</v>
+      </c>
+      <c r="AI1156">
+        <v>86.667327349999994</v>
+      </c>
+      <c r="AJ1156">
+        <v>77.525354370000002</v>
+      </c>
+      <c r="AK1156">
+        <v>88.269715700000006</v>
+      </c>
+      <c r="AL1156">
+        <v>90.159144069999996</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:38">
+      <c r="A1157" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1157" s="8">
+        <v>35907</v>
+      </c>
+      <c r="AF1157">
+        <v>55.70517006</v>
+      </c>
+      <c r="AG1157">
+        <v>72.016829220000005</v>
+      </c>
+      <c r="AH1157">
+        <v>86.454789469999994</v>
+      </c>
+      <c r="AI1157">
+        <v>87.676801560000001</v>
+      </c>
+      <c r="AJ1157">
+        <v>79.009112799999997</v>
+      </c>
+      <c r="AK1157">
+        <v>90.413535499999995</v>
+      </c>
+      <c r="AL1157">
+        <v>91.841263190000006</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:38">
+      <c r="A1158" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1158" s="8">
+        <v>35921</v>
+      </c>
+      <c r="AF1158">
+        <v>52.56374418</v>
+      </c>
+      <c r="AG1158">
+        <v>74.070040340000006</v>
+      </c>
+      <c r="AH1158">
+        <v>87.771290719999996</v>
+      </c>
+      <c r="AI1158">
+        <v>89.462637290000004</v>
+      </c>
+      <c r="AJ1158">
+        <v>80.70524356</v>
+      </c>
+      <c r="AK1158">
+        <v>90.909115729999996</v>
+      </c>
+      <c r="AL1158">
+        <v>93.589233629999995</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:38">
+      <c r="A1159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1159" s="8">
+        <v>35933</v>
+      </c>
+      <c r="AF1159">
+        <v>47.705551360000001</v>
+      </c>
+      <c r="AG1159">
+        <v>74.152860689999997</v>
+      </c>
+      <c r="AH1159">
+        <v>87.454964860000004</v>
+      </c>
+      <c r="AI1159">
+        <v>89.005706900000007</v>
+      </c>
+      <c r="AJ1159">
+        <v>80.363056009999994</v>
+      </c>
+      <c r="AK1159">
+        <v>91.0272468</v>
+      </c>
+      <c r="AL1159">
+        <v>92.920762710000005</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:38">
+      <c r="A1160" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1160" s="8">
+        <v>35949</v>
+      </c>
+      <c r="AF1160">
+        <v>43.111126980000002</v>
+      </c>
+      <c r="AG1160">
+        <v>71.903828790000006</v>
+      </c>
+      <c r="AH1160">
+        <v>85.670040670000006</v>
+      </c>
+      <c r="AI1160">
+        <v>87.320482920000003</v>
+      </c>
+      <c r="AJ1160">
+        <v>78.312623020000004</v>
+      </c>
+      <c r="AK1160">
+        <v>89.495004069999993</v>
+      </c>
+      <c r="AL1160">
+        <v>91.052005899999997</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:38">
+      <c r="A1161" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1161" s="8">
+        <v>35961</v>
+      </c>
+      <c r="AF1161">
+        <v>44.632326910000003</v>
+      </c>
+      <c r="AG1161">
+        <v>71.981018710000001</v>
+      </c>
+      <c r="AH1161">
+        <v>85.499410330000003</v>
+      </c>
+      <c r="AI1161">
+        <v>87.359077880000001</v>
+      </c>
+      <c r="AJ1161">
+        <v>77.830186049999995</v>
+      </c>
+      <c r="AK1161">
+        <v>89.534614680000004</v>
+      </c>
+      <c r="AL1161">
+        <v>90.802154329999993</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:38">
+      <c r="A1162" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1162" s="8">
+        <v>35978</v>
+      </c>
+      <c r="AF1162">
+        <v>57.780765559999999</v>
+      </c>
+      <c r="AG1162">
+        <v>72.523379419999998</v>
+      </c>
+      <c r="AH1162">
+        <v>84.845327370000007</v>
+      </c>
+      <c r="AI1162">
+        <v>87.205713700000004</v>
+      </c>
+      <c r="AJ1162">
+        <v>78.543177099999994</v>
+      </c>
+      <c r="AK1162">
+        <v>88.705838760000006</v>
+      </c>
+      <c r="AL1162">
+        <v>90.724964420000006</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:38">
+      <c r="A1163" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1163" s="8">
+        <v>35997</v>
+      </c>
+      <c r="AF1163">
+        <v>62.970517739999998</v>
+      </c>
+      <c r="AG1163">
+        <v>75.527692149999993</v>
+      </c>
+      <c r="AH1163">
+        <v>85.419173439999994</v>
+      </c>
+      <c r="AI1163">
+        <v>86.111851360000003</v>
+      </c>
+      <c r="AJ1163">
+        <v>77.913469910000003</v>
+      </c>
+      <c r="AK1163">
+        <v>89.193354009999993</v>
+      </c>
+      <c r="AL1163">
+        <v>90.563474990000003</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:38">
+      <c r="A1164" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1164" s="8">
+        <v>36012</v>
+      </c>
+      <c r="AF1164">
+        <v>64.707290819999997</v>
+      </c>
+      <c r="AG1164">
+        <v>93.148321469999999</v>
+      </c>
+      <c r="AH1164">
+        <v>87.873000200000007</v>
+      </c>
+      <c r="AI1164">
+        <v>86.884766170000006</v>
+      </c>
+      <c r="AJ1164">
+        <v>77.302044530000003</v>
+      </c>
+      <c r="AK1164">
+        <v>88.653024599999995</v>
+      </c>
+      <c r="AL1164">
+        <v>89.874859700000002</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:38">
+      <c r="A1165" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1165" s="8">
+        <v>36038</v>
+      </c>
+      <c r="AF1165">
+        <v>63.517772989999997</v>
+      </c>
+      <c r="AG1165">
+        <v>101.0711621</v>
+      </c>
+      <c r="AH1165">
+        <v>101.4533326</v>
+      </c>
+      <c r="AI1165">
+        <v>89.935680550000001</v>
+      </c>
+      <c r="AJ1165">
+        <v>79.639738089999994</v>
+      </c>
+      <c r="AK1165">
+        <v>90.368326460000006</v>
+      </c>
+      <c r="AL1165">
+        <v>92.094789649999996</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:38">
+      <c r="A1166" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1166" s="8">
+        <v>36056</v>
+      </c>
+      <c r="AF1166">
+        <v>67.039022119999998</v>
+      </c>
+      <c r="AG1166">
+        <v>100.67858339999999</v>
+      </c>
+      <c r="AH1166">
+        <v>100.6358214</v>
+      </c>
+      <c r="AI1166">
+        <v>88.962834279999996</v>
+      </c>
+      <c r="AJ1166">
+        <v>78.131849779999996</v>
+      </c>
+      <c r="AK1166">
+        <v>89.040212999999994</v>
+      </c>
+      <c r="AL1166">
+        <v>90.897302280000005</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:38">
+      <c r="A1167" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1167" s="8">
+        <v>36067</v>
+      </c>
+      <c r="AF1167">
+        <v>65.77882348</v>
+      </c>
+      <c r="AG1167">
+        <v>103.9737691</v>
+      </c>
+      <c r="AH1167">
+        <v>110.7102388</v>
+      </c>
+      <c r="AI1167">
+        <v>99.199001839999994</v>
+      </c>
+      <c r="AJ1167">
+        <v>82.864056950000005</v>
+      </c>
+      <c r="AK1167">
+        <v>89.716760559999997</v>
+      </c>
+      <c r="AL1167">
+        <v>90.755728719999993</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:38">
+      <c r="A1168" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1168" s="8">
+        <v>36098</v>
+      </c>
+      <c r="AF1168">
+        <v>46.378964449999998</v>
+      </c>
+      <c r="AG1168">
+        <v>91.991300600000002</v>
+      </c>
+      <c r="AH1168">
+        <v>106.6037539</v>
+      </c>
+      <c r="AI1168">
+        <v>101.1694976</v>
+      </c>
+      <c r="AJ1168">
+        <v>83.147677209999998</v>
+      </c>
+      <c r="AK1168">
+        <v>91.131261559999999</v>
+      </c>
+      <c r="AL1168">
+        <v>92.296111569999994</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:38">
+      <c r="A1169" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1169" s="8">
+        <v>36120</v>
+      </c>
+      <c r="AF1169">
+        <v>49.18942938</v>
+      </c>
+      <c r="AG1169">
+        <v>85.066664250000002</v>
+      </c>
+      <c r="AH1169">
+        <v>101.2584232</v>
+      </c>
+      <c r="AI1169">
+        <v>100.09249250000001</v>
+      </c>
+      <c r="AJ1169">
+        <v>83.980322810000004</v>
+      </c>
+      <c r="AK1169">
+        <v>92.001264359999993</v>
+      </c>
+      <c r="AL1169">
+        <v>92.444690120000004</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:38">
+      <c r="A1170" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1170" s="8">
+        <v>36146</v>
+      </c>
+      <c r="AF1170">
+        <v>28.489933860000001</v>
+      </c>
+      <c r="AG1170">
+        <v>71.157759040000002</v>
+      </c>
+      <c r="AH1170">
+        <v>92.481412460000001</v>
+      </c>
+      <c r="AI1170">
+        <v>96.66927269</v>
+      </c>
+      <c r="AJ1170">
+        <v>84.069889320000001</v>
+      </c>
+      <c r="AK1170">
+        <v>93.952481289999994</v>
+      </c>
+      <c r="AL1170">
+        <v>96.335465369999994</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:38">
+      <c r="A1171" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1171" s="8">
+        <v>36215</v>
+      </c>
+      <c r="AF1171">
+        <v>30.467638480000002</v>
+      </c>
+      <c r="AG1171">
+        <v>71.522747870000003</v>
+      </c>
+      <c r="AH1171">
+        <v>85.16633444</v>
+      </c>
+      <c r="AI1171">
+        <v>90.000406359999999</v>
+      </c>
+      <c r="AJ1171">
+        <v>80.308382870000003</v>
+      </c>
+      <c r="AK1171">
+        <v>91.475753479999995</v>
+      </c>
+      <c r="AL1171">
+        <v>92.474545829999997</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:38">
+      <c r="A1172" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1172" s="8">
+        <v>36273</v>
+      </c>
+      <c r="AF1172">
+        <v>27.54054086</v>
+      </c>
+      <c r="AG1172">
+        <v>65.546928289999997</v>
+      </c>
+      <c r="AH1172">
+        <v>83.281780119999993</v>
+      </c>
+      <c r="AI1172">
+        <v>85.970501670000004</v>
+      </c>
+      <c r="AJ1172">
+        <v>77.561805399999997</v>
+      </c>
+      <c r="AK1172">
+        <v>88.636994029999997</v>
+      </c>
+      <c r="AL1172">
+        <v>89.719151409999995</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:38">
+      <c r="A1173" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1173" s="8">
+        <v>36308</v>
+      </c>
+      <c r="AF1173">
+        <v>49.330101239999998</v>
+      </c>
+      <c r="AG1173">
+        <v>68.352030909999996</v>
+      </c>
+      <c r="AH1173">
+        <v>84.410145290000003</v>
+      </c>
+      <c r="AI1173">
+        <v>88.608930450000003</v>
+      </c>
+      <c r="AJ1173">
+        <v>79.192287480000005</v>
+      </c>
+      <c r="AK1173">
+        <v>90.143715610000001</v>
+      </c>
+      <c r="AL1173">
+        <v>92.232299850000004</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:38">
+      <c r="A1174" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1174" s="8">
+        <v>36333</v>
+      </c>
+      <c r="AF1174">
+        <v>66.275427190000002</v>
+      </c>
+      <c r="AG1174">
+        <v>95.051274620000001</v>
+      </c>
+      <c r="AH1174">
+        <v>87.249452410000004</v>
+      </c>
+      <c r="AI1174">
+        <v>88.644364240000002</v>
+      </c>
+      <c r="AJ1174">
+        <v>79.448660410000002</v>
+      </c>
+      <c r="AK1174">
+        <v>90.04339693</v>
+      </c>
+      <c r="AL1174">
+        <v>92.102797769999995</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:38">
+      <c r="A1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1175" s="8">
+        <v>36363</v>
+      </c>
+      <c r="AF1175">
+        <v>65.924711799999997</v>
+      </c>
+      <c r="AG1175">
+        <v>98.141438669999999</v>
+      </c>
+      <c r="AH1175">
+        <v>91.372929600000006</v>
+      </c>
+      <c r="AI1175">
+        <v>88.871078999999995</v>
+      </c>
+      <c r="AJ1175">
+        <v>78.694770980000001</v>
+      </c>
+      <c r="AK1175">
+        <v>90.389182289999994</v>
+      </c>
+      <c r="AL1175">
+        <v>90.98291116</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:38">
+      <c r="A1176" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1176" s="8">
+        <v>36383</v>
+      </c>
+      <c r="AF1176">
+        <v>67.207953579999995</v>
+      </c>
+      <c r="AG1176">
+        <v>102.3437095</v>
+      </c>
+      <c r="AH1176">
+        <v>94.719598550000001</v>
+      </c>
+      <c r="AI1176">
+        <v>91.105995849999999</v>
+      </c>
+      <c r="AJ1176">
+        <v>79.879681540000007</v>
+      </c>
+      <c r="AK1176">
+        <v>91.290458509999993</v>
+      </c>
+      <c r="AL1176">
+        <v>92.308112030000004</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:38">
+      <c r="A1177" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1177" s="8">
+        <v>36397</v>
+      </c>
+      <c r="AF1177">
+        <v>64.477602469999994</v>
+      </c>
+      <c r="AG1177">
+        <v>103.5297837</v>
+      </c>
+      <c r="AH1177">
+        <v>104.22339289999999</v>
+      </c>
+      <c r="AI1177">
+        <v>98.383349210000006</v>
+      </c>
+      <c r="AJ1177">
+        <v>84.470609730000007</v>
+      </c>
+      <c r="AK1177">
+        <v>91.766504800000007</v>
+      </c>
+      <c r="AL1177">
+        <v>92.964462490000003</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:38">
+      <c r="A1178" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1178" s="8">
+        <v>36410</v>
+      </c>
+      <c r="AF1178">
+        <v>67.837420350000002</v>
+      </c>
+      <c r="AG1178">
+        <v>104.26329010000001</v>
+      </c>
+      <c r="AH1178">
+        <v>108.0673042</v>
+      </c>
+      <c r="AI1178">
+        <v>97.561125290000007</v>
+      </c>
+      <c r="AJ1178">
+        <v>83.601852339999994</v>
+      </c>
+      <c r="AK1178">
+        <v>90.848759319999999</v>
+      </c>
+      <c r="AL1178">
+        <v>90.904865720000004</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:38">
+      <c r="A1179" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1179" s="8">
+        <v>36425</v>
+      </c>
+      <c r="AF1179">
+        <v>58.363465949999998</v>
+      </c>
+      <c r="AG1179">
+        <v>101.22578849999999</v>
+      </c>
+      <c r="AH1179">
+        <v>107.9230355</v>
+      </c>
+      <c r="AI1179">
+        <v>100.1042448</v>
+      </c>
+      <c r="AJ1179">
+        <v>84.656685550000006</v>
+      </c>
+      <c r="AK1179">
+        <v>91.161845060000005</v>
+      </c>
+      <c r="AL1179">
+        <v>91.844478879999997</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:38">
+      <c r="A1180" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1180" s="8">
+        <v>36454</v>
+      </c>
+      <c r="AF1180">
+        <v>56.09841934</v>
+      </c>
+      <c r="AG1180">
+        <v>94.077626309999999</v>
+      </c>
+      <c r="AH1180">
+        <v>102.62612919999999</v>
+      </c>
+      <c r="AI1180">
+        <v>99.287111800000005</v>
+      </c>
+      <c r="AJ1180">
+        <v>83.623616249999998</v>
+      </c>
+      <c r="AK1180">
+        <v>92.190669249999999</v>
+      </c>
+      <c r="AL1180">
+        <v>91.60943288</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:38">
+      <c r="A1181" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1181" s="8">
+        <v>36502</v>
+      </c>
+      <c r="AF1181">
+        <v>24.951010149999998</v>
+      </c>
+      <c r="AG1181">
+        <v>69.700315630000006</v>
+      </c>
+      <c r="AH1181">
+        <v>87.425350080000001</v>
+      </c>
+      <c r="AI1181">
+        <v>95.338479460000002</v>
+      </c>
+      <c r="AJ1181">
+        <v>83.642396669999997</v>
+      </c>
+      <c r="AK1181">
+        <v>92.649329280000003</v>
+      </c>
+      <c r="AL1181">
+        <v>93.898496370000004</v>
       </c>
     </row>
   </sheetData>

--- a/Prototypes/Lucerne/Nekia.xlsx
+++ b/Prototypes/Lucerne/Nekia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="40">
   <si>
     <t>NekiaDefoliation</t>
   </si>
@@ -38,9 +38,6 @@
   <si>
     <t>ET</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Biomass</t>
   </si>
   <si>
     <t>Average accum DM</t>
@@ -154,6 +151,10 @@
   </si>
   <si>
     <t>SW240to280</t>
+  </si>
+  <si>
+    <t>Shootbiomass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,23 +539,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943DADBB-0F94-4862-B53D-8A552399A6D3}">
-  <dimension ref="A1:BE1181"/>
+  <dimension ref="A1:BE1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1129" sqref="AF1129:AL1181"/>
+      <pane ySplit="1" topLeftCell="A1190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1182" sqref="D1182:D1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -563,109 +566,109 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>38</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -16261,7 +16264,7 @@
     </row>
     <row r="1129" spans="1:38">
       <c r="A1129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1129" s="8">
         <v>35165</v>
@@ -16290,7 +16293,7 @@
     </row>
     <row r="1130" spans="1:38">
       <c r="A1130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1130" s="8">
         <v>35222</v>
@@ -16319,7 +16322,7 @@
     </row>
     <row r="1131" spans="1:38">
       <c r="A1131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1131" s="8">
         <v>35256</v>
@@ -16348,7 +16351,7 @@
     </row>
     <row r="1132" spans="1:38">
       <c r="A1132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1132" s="8">
         <v>35262</v>
@@ -16377,7 +16380,7 @@
     </row>
     <row r="1133" spans="1:38">
       <c r="A1133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1133" s="8">
         <v>35269</v>
@@ -16406,7 +16409,7 @@
     </row>
     <row r="1134" spans="1:38">
       <c r="A1134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1134" s="8">
         <v>35277</v>
@@ -16435,7 +16438,7 @@
     </row>
     <row r="1135" spans="1:38">
       <c r="A1135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1135" s="8">
         <v>35283</v>
@@ -16464,7 +16467,7 @@
     </row>
     <row r="1136" spans="1:38">
       <c r="A1136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1136" s="8">
         <v>35297</v>
@@ -16493,7 +16496,7 @@
     </row>
     <row r="1137" spans="1:38">
       <c r="A1137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1137" s="8">
         <v>35311</v>
@@ -16522,7 +16525,7 @@
     </row>
     <row r="1138" spans="1:38">
       <c r="A1138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1138" s="8">
         <v>35325</v>
@@ -16551,7 +16554,7 @@
     </row>
     <row r="1139" spans="1:38">
       <c r="A1139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1139" s="8">
         <v>35341</v>
@@ -16580,7 +16583,7 @@
     </row>
     <row r="1140" spans="1:38">
       <c r="A1140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1140" s="8">
         <v>35368</v>
@@ -16609,7 +16612,7 @@
     </row>
     <row r="1141" spans="1:38">
       <c r="A1141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1141" s="8">
         <v>35388</v>
@@ -16638,7 +16641,7 @@
     </row>
     <row r="1142" spans="1:38">
       <c r="A1142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1142" s="8">
         <v>35408</v>
@@ -16667,7 +16670,7 @@
     </row>
     <row r="1143" spans="1:38">
       <c r="A1143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1143" s="8">
         <v>35468</v>
@@ -16696,7 +16699,7 @@
     </row>
     <row r="1144" spans="1:38">
       <c r="A1144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1144" s="8">
         <v>35543</v>
@@ -16725,7 +16728,7 @@
     </row>
     <row r="1145" spans="1:38">
       <c r="A1145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1145" s="8">
         <v>35580</v>
@@ -16754,7 +16757,7 @@
     </row>
     <row r="1146" spans="1:38">
       <c r="A1146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1146" s="8">
         <v>35598</v>
@@ -16783,7 +16786,7 @@
     </row>
     <row r="1147" spans="1:38">
       <c r="A1147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1147" s="8">
         <v>35612</v>
@@ -16812,7 +16815,7 @@
     </row>
     <row r="1148" spans="1:38">
       <c r="A1148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1148" s="8">
         <v>35629</v>
@@ -16841,7 +16844,7 @@
     </row>
     <row r="1149" spans="1:38">
       <c r="A1149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1149" s="8">
         <v>35647</v>
@@ -16870,7 +16873,7 @@
     </row>
     <row r="1150" spans="1:38">
       <c r="A1150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1150" s="8">
         <v>35664</v>
@@ -16899,7 +16902,7 @@
     </row>
     <row r="1151" spans="1:38">
       <c r="A1151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1151" s="8">
         <v>35697</v>
@@ -16928,7 +16931,7 @@
     </row>
     <row r="1152" spans="1:38">
       <c r="A1152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1152" s="8">
         <v>35727</v>
@@ -16957,7 +16960,7 @@
     </row>
     <row r="1153" spans="1:38">
       <c r="A1153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1153" s="8">
         <v>35747</v>
@@ -16986,7 +16989,7 @@
     </row>
     <row r="1154" spans="1:38">
       <c r="A1154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1154" s="8">
         <v>35766</v>
@@ -17015,7 +17018,7 @@
     </row>
     <row r="1155" spans="1:38">
       <c r="A1155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1155" s="8">
         <v>35781</v>
@@ -17044,7 +17047,7 @@
     </row>
     <row r="1156" spans="1:38">
       <c r="A1156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1156" s="8">
         <v>35866</v>
@@ -17073,7 +17076,7 @@
     </row>
     <row r="1157" spans="1:38">
       <c r="A1157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1157" s="8">
         <v>35907</v>
@@ -17102,7 +17105,7 @@
     </row>
     <row r="1158" spans="1:38">
       <c r="A1158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1158" s="8">
         <v>35921</v>
@@ -17131,7 +17134,7 @@
     </row>
     <row r="1159" spans="1:38">
       <c r="A1159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1159" s="8">
         <v>35933</v>
@@ -17160,7 +17163,7 @@
     </row>
     <row r="1160" spans="1:38">
       <c r="A1160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1160" s="8">
         <v>35949</v>
@@ -17189,7 +17192,7 @@
     </row>
     <row r="1161" spans="1:38">
       <c r="A1161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1161" s="8">
         <v>35961</v>
@@ -17218,7 +17221,7 @@
     </row>
     <row r="1162" spans="1:38">
       <c r="A1162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1162" s="8">
         <v>35978</v>
@@ -17247,7 +17250,7 @@
     </row>
     <row r="1163" spans="1:38">
       <c r="A1163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1163" s="8">
         <v>35997</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="1164" spans="1:38">
       <c r="A1164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1164" s="8">
         <v>36012</v>
@@ -17305,7 +17308,7 @@
     </row>
     <row r="1165" spans="1:38">
       <c r="A1165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1165" s="8">
         <v>36038</v>
@@ -17334,7 +17337,7 @@
     </row>
     <row r="1166" spans="1:38">
       <c r="A1166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1166" s="8">
         <v>36056</v>
@@ -17363,7 +17366,7 @@
     </row>
     <row r="1167" spans="1:38">
       <c r="A1167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1167" s="8">
         <v>36067</v>
@@ -17392,7 +17395,7 @@
     </row>
     <row r="1168" spans="1:38">
       <c r="A1168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1168" s="8">
         <v>36098</v>
@@ -17421,7 +17424,7 @@
     </row>
     <row r="1169" spans="1:38">
       <c r="A1169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1169" s="8">
         <v>36120</v>
@@ -17450,7 +17453,7 @@
     </row>
     <row r="1170" spans="1:38">
       <c r="A1170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1170" s="8">
         <v>36146</v>
@@ -17479,7 +17482,7 @@
     </row>
     <row r="1171" spans="1:38">
       <c r="A1171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1171" s="8">
         <v>36215</v>
@@ -17508,7 +17511,7 @@
     </row>
     <row r="1172" spans="1:38">
       <c r="A1172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1172" s="8">
         <v>36273</v>
@@ -17537,7 +17540,7 @@
     </row>
     <row r="1173" spans="1:38">
       <c r="A1173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1173" s="8">
         <v>36308</v>
@@ -17566,7 +17569,7 @@
     </row>
     <row r="1174" spans="1:38">
       <c r="A1174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1174" s="8">
         <v>36333</v>
@@ -17595,7 +17598,7 @@
     </row>
     <row r="1175" spans="1:38">
       <c r="A1175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1175" s="8">
         <v>36363</v>
@@ -17624,7 +17627,7 @@
     </row>
     <row r="1176" spans="1:38">
       <c r="A1176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1176" s="8">
         <v>36383</v>
@@ -17653,7 +17656,7 @@
     </row>
     <row r="1177" spans="1:38">
       <c r="A1177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1177" s="8">
         <v>36397</v>
@@ -17682,7 +17685,7 @@
     </row>
     <row r="1178" spans="1:38">
       <c r="A1178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1178" s="8">
         <v>36410</v>
@@ -17711,7 +17714,7 @@
     </row>
     <row r="1179" spans="1:38">
       <c r="A1179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1179" s="8">
         <v>36425</v>
@@ -17740,7 +17743,7 @@
     </row>
     <row r="1180" spans="1:38">
       <c r="A1180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1180" s="8">
         <v>36454</v>
@@ -17769,7 +17772,7 @@
     </row>
     <row r="1181" spans="1:38">
       <c r="A1181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1181" s="8">
         <v>36502</v>
@@ -17794,6 +17797,281 @@
       </c>
       <c r="AL1181">
         <v>93.898496370000004</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:38">
+      <c r="A1182" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1182" s="8">
+        <v>34355</v>
+      </c>
+      <c r="D1182" s="4">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:38">
+      <c r="A1183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1183" s="8">
+        <v>34418</v>
+      </c>
+      <c r="D1183" s="4">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:38">
+      <c r="A1184" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1184" s="8">
+        <v>34625</v>
+      </c>
+      <c r="D1184" s="4">
+        <v>253.6</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4">
+      <c r="A1185" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1185" s="8">
+        <v>34704</v>
+      </c>
+      <c r="D1185" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4">
+      <c r="A1186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1186" s="8">
+        <v>34740</v>
+      </c>
+      <c r="D1186" s="4">
+        <v>317.2</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4">
+      <c r="A1187" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1187" s="8">
+        <v>34933</v>
+      </c>
+      <c r="D1187" s="4">
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4">
+      <c r="A1188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1188" s="8">
+        <v>34985</v>
+      </c>
+      <c r="D1188" s="4">
+        <v>147.4</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4">
+      <c r="A1189" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1189" s="8">
+        <v>35033</v>
+      </c>
+      <c r="D1189" s="4">
+        <v>413.2</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4">
+      <c r="A1190" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1190" s="8">
+        <v>35081</v>
+      </c>
+      <c r="D1190" s="4">
+        <v>239.8</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4">
+      <c r="A1191" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1191" s="8">
+        <v>35137</v>
+      </c>
+      <c r="D1191" s="4">
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4">
+      <c r="A1192" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1192" s="8">
+        <v>35293</v>
+      </c>
+      <c r="D1192" s="4">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4">
+      <c r="A1193" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1193" s="8">
+        <v>35361</v>
+      </c>
+      <c r="D1193" s="4">
+        <v>236.2</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4">
+      <c r="A1194" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1194" s="8">
+        <v>35409</v>
+      </c>
+      <c r="D1194" s="4">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4">
+      <c r="A1195" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1195" s="8">
+        <v>35579</v>
+      </c>
+      <c r="D1195" s="4">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4">
+      <c r="A1196" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1196" s="8">
+        <v>35684</v>
+      </c>
+      <c r="D1196" s="4">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4">
+      <c r="A1197" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1197" s="8">
+        <v>35752</v>
+      </c>
+      <c r="D1197" s="4">
+        <v>247.7</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4">
+      <c r="A1198" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1198" s="8">
+        <v>35920</v>
+      </c>
+      <c r="D1198" s="4">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4">
+      <c r="A1199" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1199" s="8">
+        <v>36014</v>
+      </c>
+      <c r="D1199" s="4">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4">
+      <c r="A1200" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1200" s="8">
+        <v>36081</v>
+      </c>
+      <c r="D1200" s="4">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4">
+      <c r="A1201" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1201" s="8">
+        <v>36133</v>
+      </c>
+      <c r="D1201" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4">
+      <c r="A1202" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1202" s="8">
+        <v>36224</v>
+      </c>
+      <c r="D1202" s="4">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4">
+      <c r="A1203" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1203" s="8">
+        <v>36271</v>
+      </c>
+      <c r="D1203" s="4">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4">
+      <c r="A1204" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1204" s="8">
+        <v>36377</v>
+      </c>
+      <c r="D1204" s="4">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4">
+      <c r="A1205" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1205" s="8">
+        <v>36446</v>
+      </c>
+      <c r="D1205" s="4">
+        <v>411.2</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4">
+      <c r="A1206" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1206" s="8">
+        <v>36503</v>
+      </c>
+      <c r="D1206" s="4">
+        <v>254.8</v>
       </c>
     </row>
   </sheetData>
